--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C3" s="2">
         <f>ASISTENCIA!Q3</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <f>EXPERIENCIA!D3</f>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="I3" s="25">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C4" s="2">
         <f>ASISTENCIA!Q4</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C7" s="2">
         <f>ASISTENCIA!Q7</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2">
         <f>EXPERIENCIA!D7</f>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!Q8</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C9" s="2">
         <f>ASISTENCIA!Q9</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2">
         <f>EXPERIENCIA!D9</f>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="C10" s="2">
         <f>ASISTENCIA!Q10</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <f>EXPERIENCIA!D10</f>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C11" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <f>EXPERIENCIA!D11</f>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="C12" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <f>EXPERIENCIA!D12</f>
@@ -1854,7 +1854,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="C13" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <f>EXPERIENCIA!D13</f>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!Q14</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +1937,10 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2068,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>5</v>
@@ -2108,7 +2111,7 @@
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q14" si="0">ROUNDUP( 20 - COUNTIF(C3:P3,"P") - COUNTIF(C3:P3,"T")/2,0)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2122,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>5</v>
@@ -2162,7 +2165,7 @@
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2284,7 +2287,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>5</v>
@@ -2324,7 +2327,7 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2338,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>5</v>
@@ -2378,7 +2381,7 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2392,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>5</v>
@@ -2432,7 +2435,7 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2446,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>5</v>
@@ -2486,7 +2489,7 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2500,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>5</v>
@@ -2540,7 +2543,7 @@
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2554,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>5</v>
@@ -2594,7 +2597,7 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2608,7 +2611,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>5</v>
@@ -2648,7 +2651,7 @@
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2662,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>5</v>
@@ -2702,7 +2705,7 @@
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2715,7 +2718,7 @@
       </c>
       <c r="D15" s="29">
         <f t="shared" ref="D15:J15" si="1">COUNTIF(D2:D14,"=P")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="29">
         <f t="shared" si="1"/>
@@ -2837,7 +2840,7 @@
       </c>
       <c r="D17" s="29">
         <f t="shared" ref="D17:P17" si="9">COUNTIF(D2:D14,"=F")</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E17" s="29">
         <f t="shared" si="9"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="67">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>18-AGO</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1589,7 @@
       </c>
       <c r="C5" s="2">
         <f>ASISTENCIA!Q5</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <f>EXPERIENCIA!D5</f>
@@ -1609,7 +1612,7 @@
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1937,18 +1940,18 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
     <col min="5" max="16" width="9.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
@@ -2017,7 +2020,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
@@ -2179,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>5</v>
@@ -2219,7 +2222,7 @@
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2233,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>5</v>
@@ -2718,7 +2721,7 @@
       </c>
       <c r="D15" s="29">
         <f t="shared" ref="D15:J15" si="1">COUNTIF(D2:D14,"=P")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="29">
         <f t="shared" si="1"/>
@@ -2779,7 +2782,7 @@
       </c>
       <c r="D16" s="29">
         <f t="shared" ref="D16:P16" si="8">COUNTIF(D2:D14,"=T")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="29">
         <f t="shared" si="8"/>
@@ -2840,7 +2843,7 @@
       </c>
       <c r="D17" s="29">
         <f t="shared" ref="D17:P17" si="9">COUNTIF(D2:D14,"=F")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" s="29">
         <f t="shared" si="9"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C3" s="2">
         <f>ASISTENCIA!Q3</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <f>EXPERIENCIA!D3</f>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I3" s="25">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>3.6</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C4" s="2">
         <f>ASISTENCIA!Q4</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C5" s="2">
         <f>ASISTENCIA!Q5</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <f>EXPERIENCIA!D5</f>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C6" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <f>EXPERIENCIA!D6</f>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C7" s="2">
         <f>ASISTENCIA!Q7</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <f>EXPERIENCIA!D7</f>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!Q8</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C9" s="2">
         <f>ASISTENCIA!Q9</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <f>EXPERIENCIA!D9</f>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="C10" s="2">
         <f>ASISTENCIA!Q10</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <f>EXPERIENCIA!D10</f>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C11" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <f>EXPERIENCIA!D11</f>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C12" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
         <f>EXPERIENCIA!D12</f>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C13" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
         <f>EXPERIENCIA!D13</f>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>3.8000000000000003</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!Q14</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>3.4000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1943,7 +1943,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2080,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>5</v>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q14" si="0">ROUNDUP( 20 - COUNTIF(C3:P3,"P") - COUNTIF(C3:P3,"T")/2,0)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2134,7 +2134,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>5</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2188,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>5</v>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2242,7 +2242,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>5</v>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2296,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>5</v>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2350,7 +2350,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>5</v>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2404,7 +2404,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>5</v>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2458,7 +2458,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>5</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2512,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>5</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2566,7 +2566,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>5</v>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2620,7 +2620,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>5</v>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2674,7 +2674,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>5</v>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="F17" s="29">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" si="9"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -1484,7 +1484,7 @@
       </c>
       <c r="C2" s="2">
         <f>ASISTENCIA!Q2</f>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <f>EXPERIENCIA!D2</f>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="I2" s="25">
         <f>C2*0.2+D2*0.05+E2*0.05+F2*0.1+G2*0.4+H2*0.2</f>
-        <v>4</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C3" s="2">
         <f>ASISTENCIA!Q3</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <f>EXPERIENCIA!D3</f>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I3" s="25">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>3.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C4" s="2">
         <f>ASISTENCIA!Q4</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C5" s="2">
         <f>ASISTENCIA!Q5</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <f>EXPERIENCIA!D5</f>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C6" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
         <f>EXPERIENCIA!D6</f>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="C7" s="2">
         <f>ASISTENCIA!Q7</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <f>EXPERIENCIA!D7</f>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="I7" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!Q8</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C9" s="2">
         <f>ASISTENCIA!Q9</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2">
         <f>EXPERIENCIA!D9</f>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="C10" s="2">
         <f>ASISTENCIA!Q10</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2">
         <f>EXPERIENCIA!D10</f>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C11" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <f>EXPERIENCIA!D11</f>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C12" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2">
         <f>EXPERIENCIA!D12</f>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C13" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
         <f>EXPERIENCIA!D13</f>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>3.6</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!Q14</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>3.4000000000000004</v>
+        <v>2.4000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1940,10 +1940,10 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,7 +1952,8 @@
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="16" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="10" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="16" width="9.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2029,7 +2030,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>5</v>
@@ -2059,8 +2060,8 @@
         <v>5</v>
       </c>
       <c r="Q2" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C2:P2,"P") - COUNTIF(C2:P2,"T")/2,0)</f>
-        <v>20</v>
+        <f>ROUNDUP( 20 - COUNTIF(C2:P2,"F") - COUNTIF(C2:P2,"T")/2,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2077,22 +2078,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>5</v>
@@ -2113,8 +2114,8 @@
         <v>5</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q14" si="0">ROUNDUP( 20 - COUNTIF(C3:P3,"P") - COUNTIF(C3:P3,"T")/2,0)</f>
-        <v>17</v>
+        <f t="shared" ref="Q3:Q14" si="0">ROUNDUP( 20 - COUNTIF(C3:P3,"F") - COUNTIF(C3:P3,"T")/2,0)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2131,22 +2132,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>5</v>
@@ -2168,7 +2169,7 @@
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2185,22 +2186,22 @@
         <v>2</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>5</v>
@@ -2222,7 +2223,7 @@
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2239,22 +2240,22 @@
         <v>66</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>5</v>
@@ -2276,7 +2277,7 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2293,22 +2294,22 @@
         <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>5</v>
@@ -2330,7 +2331,7 @@
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2347,22 +2348,22 @@
         <v>2</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>5</v>
@@ -2384,7 +2385,7 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2401,22 +2402,22 @@
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>5</v>
@@ -2438,7 +2439,7 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2455,7 +2456,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>2</v>
@@ -2464,13 +2465,13 @@
         <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>5</v>
@@ -2492,7 +2493,7 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2509,22 +2510,22 @@
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>5</v>
@@ -2546,7 +2547,7 @@
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2563,22 +2564,22 @@
         <v>2</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>5</v>
@@ -2600,7 +2601,7 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2617,22 +2618,22 @@
         <v>2</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>5</v>
@@ -2654,7 +2655,7 @@
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2671,22 +2672,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>5</v>
@@ -2708,7 +2709,7 @@
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2725,7 +2726,7 @@
       </c>
       <c r="E15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F15" s="29">
         <f t="shared" si="1"/>
@@ -2733,19 +2734,19 @@
       </c>
       <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="29">
         <f t="shared" ref="K15" si="2">COUNTIF(K2:K14,"=P")</f>
@@ -2794,19 +2795,19 @@
       </c>
       <c r="G16" s="29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" s="29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" s="29">
         <f t="shared" si="8"/>
@@ -2847,7 +2848,7 @@
       </c>
       <c r="E17" s="29">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F17" s="29">
         <f t="shared" si="9"/>
@@ -2855,19 +2856,19 @@
       </c>
       <c r="G17" s="29">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H17" s="29">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I17" s="29">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J17" s="29">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K17" s="29">
         <f t="shared" si="9"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="67">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>PARTICIPACION!G2</f>
+        <f>PARTICIPACION!F2</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f>PARTICIPACION!G3</f>
+        <f>PARTICIPACION!F3</f>
         <v>0</v>
       </c>
       <c r="G3" s="2">
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>PARTICIPACION!G4</f>
+        <f>PARTICIPACION!F4</f>
         <v>0</v>
       </c>
       <c r="G4" s="2">
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>PARTICIPACION!G5</f>
+        <f>PARTICIPACION!F5</f>
         <v>0</v>
       </c>
       <c r="G5" s="2">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f>PARTICIPACION!G6</f>
+        <f>PARTICIPACION!F6</f>
         <v>0</v>
       </c>
       <c r="G6" s="2">
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f>PARTICIPACION!G7</f>
+        <f>PARTICIPACION!F7</f>
         <v>0</v>
       </c>
       <c r="G7" s="2">
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f>PARTICIPACION!G8</f>
+        <f>PARTICIPACION!F8</f>
         <v>0</v>
       </c>
       <c r="G8" s="2">
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <f>PARTICIPACION!G9</f>
+        <f>PARTICIPACION!F9</f>
         <v>0</v>
       </c>
       <c r="G9" s="2">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <f>PARTICIPACION!G10</f>
+        <f>PARTICIPACION!F10</f>
         <v>0</v>
       </c>
       <c r="G10" s="2">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f>PARTICIPACION!G11</f>
+        <f>PARTICIPACION!F11</f>
         <v>0</v>
       </c>
       <c r="G11" s="2">
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f>PARTICIPACION!G12</f>
+        <f>PARTICIPACION!F12</f>
         <v>0</v>
       </c>
       <c r="G12" s="2">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <f>PARTICIPACION!G13</f>
+        <f>PARTICIPACION!F13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <f>PARTICIPACION!G14</f>
+        <f>PARTICIPACION!F14</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -1939,11 +1939,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3059,179 +3059,217 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2">
+        <v>12</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2">
+        <v>14</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="B6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2">
+        <v>14</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="B8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="C4" s="2">
         <f>ASISTENCIA!Q4</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I4" s="25">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C5" s="2">
         <f>ASISTENCIA!Q5</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
         <f>EXPERIENCIA!D5</f>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="I5" s="25">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C6" s="2">
         <f>ASISTENCIA!Q6</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <f>EXPERIENCIA!D6</f>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I6" s="25">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!Q8</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="I8" s="25">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="C9" s="2">
         <f>ASISTENCIA!Q9</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2">
         <f>EXPERIENCIA!D9</f>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="I9" s="25">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="C10" s="2">
         <f>ASISTENCIA!Q10</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <f>EXPERIENCIA!D10</f>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="I10" s="25">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1799,7 +1799,7 @@
       </c>
       <c r="C11" s="2">
         <f>ASISTENCIA!Q11</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2">
         <f>EXPERIENCIA!D11</f>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C12" s="2">
         <f>ASISTENCIA!Q12</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="2">
         <f>EXPERIENCIA!D12</f>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="I12" s="25">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C13" s="2">
         <f>ASISTENCIA!Q13</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2">
         <f>EXPERIENCIA!D13</f>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I13" s="25">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!Q14</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="I14" s="25">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>
@@ -1939,21 +1939,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B14"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="10" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="16" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16" width="9.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2150,7 +2149,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>5</v>
@@ -2169,7 +2168,7 @@
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2204,7 +2203,7 @@
         <v>66</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>5</v>
@@ -2223,7 +2222,7 @@
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2258,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>5</v>
@@ -2277,7 +2276,7 @@
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2312,7 +2311,7 @@
         <v>66</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>5</v>
@@ -2366,7 +2365,7 @@
         <v>66</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L8" s="9" t="s">
         <v>5</v>
@@ -2385,7 +2384,7 @@
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2420,7 +2419,7 @@
         <v>66</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>5</v>
@@ -2439,7 +2438,7 @@
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2474,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>5</v>
@@ -2493,7 +2492,7 @@
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2528,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>5</v>
@@ -2547,7 +2546,7 @@
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2582,7 +2581,7 @@
         <v>66</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L12" s="9" t="s">
         <v>5</v>
@@ -2601,7 +2600,7 @@
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2636,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>5</v>
@@ -2655,7 +2654,7 @@
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2690,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>5</v>
@@ -2709,7 +2708,7 @@
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
@@ -2750,7 +2749,7 @@
       </c>
       <c r="K15" s="29">
         <f t="shared" ref="K15" si="2">COUNTIF(K2:K14,"=P")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L15" s="29">
         <f t="shared" ref="L15" si="3">COUNTIF(L2:L14,"=P")</f>
@@ -2811,7 +2810,7 @@
       </c>
       <c r="K16" s="29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L16" s="29">
         <f t="shared" si="8"/>
@@ -2872,7 +2871,7 @@
       </c>
       <c r="K17" s="29">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L17" s="29">
         <f t="shared" si="9"/>
@@ -2909,7 +2908,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3061,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="75">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -66,15 +66,6 @@
     <t>PARTICI</t>
   </si>
   <si>
-    <t>TEMA</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
     <t>TRAB</t>
   </si>
   <si>
@@ -223,6 +214,39 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>Servicios REST con Java EE</t>
+  </si>
+  <si>
+    <t>WebSocket</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>Enterprise JavaBeans - EJB</t>
+  </si>
+  <si>
+    <t>Angular JS</t>
   </si>
 </sst>
 </file>
@@ -268,23 +292,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
     <font>
@@ -294,8 +304,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,12 +327,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F4F0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -355,10 +371,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -400,41 +415,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Énfasis1" xfId="1" builtinId="29"/>
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1433,20 +1451,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1466,21 +1484,21 @@
         <v>13</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <f>ASISTENCIA!Q2</f>
@@ -1499,23 +1517,23 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>INVESTIGACION!I2</f>
+        <f>INVESTIGACION!F2</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="19">
         <f>C2*0.2+D2*0.05+E2*0.05+F2*0.1+G2*0.4+H2*0.2</f>
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <f>ASISTENCIA!Q3</f>
@@ -1523,7 +1541,7 @@
       </c>
       <c r="D3" s="2">
         <f>EXPERIENCIA!D3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
         <f>EXPERIENCIA!E3</f>
@@ -1534,23 +1552,23 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f>INVESTIGACION!I3</f>
+        <f>INVESTIGACION!F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="19">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <f>ASISTENCIA!Q4</f>
@@ -1558,7 +1576,7 @@
       </c>
       <c r="D4" s="2">
         <f>EXPERIENCIA!D4</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <f>EXPERIENCIA!E4</f>
@@ -1569,23 +1587,23 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f>INVESTIGACION!I4</f>
+        <f>INVESTIGACION!F4</f>
         <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.5500000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <f>ASISTENCIA!Q5</f>
@@ -1604,23 +1622,23 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <f>INVESTIGACION!I5</f>
+        <f>INVESTIGACION!F5</f>
         <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="19">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <f>ASISTENCIA!Q6</f>
@@ -1628,7 +1646,7 @@
       </c>
       <c r="D6" s="2">
         <f>EXPERIENCIA!D6</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <f>EXPERIENCIA!E6</f>
@@ -1639,23 +1657,23 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>INVESTIGACION!I6</f>
+        <f>INVESTIGACION!F6</f>
         <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="19">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <f>ASISTENCIA!Q7</f>
@@ -1663,7 +1681,7 @@
       </c>
       <c r="D7" s="2">
         <f>EXPERIENCIA!D7</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <f>EXPERIENCIA!E7</f>
@@ -1674,23 +1692,23 @@
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f>INVESTIGACION!I7</f>
+        <f>INVESTIGACION!F7</f>
         <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>2.4000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.1500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!Q8</f>
@@ -1698,7 +1716,7 @@
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2">
         <f>EXPERIENCIA!E8</f>
@@ -1709,23 +1727,23 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f>INVESTIGACION!I8</f>
+        <f>INVESTIGACION!F8</f>
         <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <f>ASISTENCIA!Q9</f>
@@ -1733,7 +1751,7 @@
       </c>
       <c r="D9" s="2">
         <f>EXPERIENCIA!D9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
         <f>EXPERIENCIA!E9</f>
@@ -1744,23 +1762,23 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f>INVESTIGACION!I9</f>
+        <f>INVESTIGACION!F9</f>
         <v>0</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.5500000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <f>ASISTENCIA!Q10</f>
@@ -1779,23 +1797,23 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f>INVESTIGACION!I10</f>
+        <f>INVESTIGACION!F10</f>
         <v>0</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="19">
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <f>ASISTENCIA!Q11</f>
@@ -1803,7 +1821,7 @@
       </c>
       <c r="D11" s="2">
         <f>EXPERIENCIA!D11</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
         <f>EXPERIENCIA!E11</f>
@@ -1814,23 +1832,23 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f>INVESTIGACION!I11</f>
+        <f>INVESTIGACION!F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.5000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
         <f>ASISTENCIA!Q12</f>
@@ -1838,7 +1856,7 @@
       </c>
       <c r="D12" s="2">
         <f>EXPERIENCIA!D12</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
         <f>EXPERIENCIA!E12</f>
@@ -1849,23 +1867,23 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f>INVESTIGACION!I12</f>
+        <f>INVESTIGACION!F12</f>
         <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2">
         <f>ASISTENCIA!Q13</f>
@@ -1873,7 +1891,7 @@
       </c>
       <c r="D13" s="2">
         <f>EXPERIENCIA!D13</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
         <f>EXPERIENCIA!E13</f>
@@ -1884,23 +1902,23 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <f>INVESTIGACION!I13</f>
+        <f>INVESTIGACION!F13</f>
         <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="19">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!Q14</f>
@@ -1908,7 +1926,7 @@
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
         <f>EXPERIENCIA!E14</f>
@@ -1919,15 +1937,15 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f>INVESTIGACION!I14</f>
+        <f>INVESTIGACION!F14</f>
         <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>
@@ -1940,87 +1958,88 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
-    <col min="5" max="16" width="9.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="11" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="16" width="9.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
@@ -2029,7 +2048,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>5</v>
@@ -2063,12 +2082,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -2083,16 +2102,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>5</v>
@@ -2117,12 +2136,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
@@ -2171,12 +2190,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>2</v>
@@ -2191,19 +2210,19 @@
         <v>2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>5</v>
@@ -2225,18 +2244,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>2</v>
@@ -2279,12 +2298,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>5</v>
@@ -2308,10 +2327,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>5</v>
@@ -2333,12 +2352,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>2</v>
@@ -2362,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>2</v>
@@ -2387,12 +2406,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
@@ -2416,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>2</v>
@@ -2441,12 +2460,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>2</v>
@@ -2464,16 +2483,16 @@
         <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>5</v>
@@ -2495,12 +2514,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>2</v>
@@ -2518,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>5</v>
@@ -2549,12 +2568,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>2</v>
@@ -2578,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>2</v>
@@ -2603,12 +2622,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>5</v>
@@ -2657,12 +2676,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>2</v>
@@ -2677,19 +2696,19 @@
         <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>5</v>
@@ -2711,185 +2730,185 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="29">
+    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="21">
         <f>COUNTIF(C2:C14,"=P")</f>
         <v>8</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="21">
         <f t="shared" ref="D15:J15" si="1">COUNTIF(D2:D14,"=P")</f>
         <v>11</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="21">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="21">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I15" s="21">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="J15" s="29">
+      <c r="J15" s="21">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="21">
         <f t="shared" ref="K15" si="2">COUNTIF(K2:K14,"=P")</f>
         <v>7</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="21">
         <f t="shared" ref="L15" si="3">COUNTIF(L2:L14,"=P")</f>
         <v>0</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="21">
         <f t="shared" ref="M15" si="4">COUNTIF(M2:M14,"=P")</f>
         <v>0</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="21">
         <f t="shared" ref="N15" si="5">COUNTIF(N2:N14,"=P")</f>
         <v>0</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="21">
         <f t="shared" ref="O15" si="6">COUNTIF(O2:O14,"=P")</f>
         <v>0</v>
       </c>
-      <c r="P15" s="29">
+      <c r="P15" s="21">
         <f t="shared" ref="P15" si="7">COUNTIF(P2:P14,"=P")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="29">
+    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="21">
         <f>COUNTIF(C2:C14,"=T")</f>
         <v>0</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="21">
         <f t="shared" ref="D16:P16" si="8">COUNTIF(D2:D14,"=T")</f>
         <v>2</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="21">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="21">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I16" s="21">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="21">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="21">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="21">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B17" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="29">
+    <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="21">
         <f>COUNTIF(C2:C14,"=F")</f>
         <v>5</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="21">
         <f t="shared" ref="D17:P17" si="9">COUNTIF(D2:D14,"=F")</f>
         <v>0</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="21">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="21">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="21">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="21">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="21">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="J17" s="29">
+      <c r="J17" s="21">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="21">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="21">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="21">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="21">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="21">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="P17" s="29">
+      <c r="P17" s="21">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
@@ -2907,152 +2926,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="16">
+        <v>15</v>
+      </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="16">
+        <v>15</v>
+      </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="16">
+        <v>15</v>
+      </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="16">
+        <v>15</v>
+      </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="16">
+        <v>15</v>
+      </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="16">
+        <v>15</v>
+      </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="16">
+        <v>14</v>
+      </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="16">
+        <v>14</v>
+      </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="16">
+        <v>15</v>
+      </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="16">
+        <v>15</v>
+      </c>
       <c r="E14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3061,21 +3158,21 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>9</v>
@@ -3086,28 +3183,28 @@
       <c r="E1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
@@ -3116,12 +3213,12 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>8</v>
@@ -3130,12 +3227,12 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
@@ -3144,12 +3241,12 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>14</v>
@@ -3158,12 +3255,12 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -3172,12 +3269,12 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -3186,12 +3283,12 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -3200,12 +3297,12 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>10</v>
@@ -3214,12 +3311,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>12</v>
@@ -3228,12 +3325,12 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -3242,12 +3339,12 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -3256,12 +3353,12 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
@@ -3277,221 +3374,350 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>ROUNDUP((D2+E2)/2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F14" si="0">ROUNDUP((D3+E3)/2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3500,81 +3726,168 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>34</v>
-      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="74">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>16-AGO</t>
-  </si>
-  <si>
-    <t>18-AGO</t>
   </si>
   <si>
     <t>T</t>
@@ -1450,21 +1447,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.44140625" style="1"/>
-    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1493,7 +1490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1501,8 +1498,8 @@
         <v>19</v>
       </c>
       <c r="C2" s="2">
-        <f>ASISTENCIA!Q2</f>
-        <v>7</v>
+        <f>ASISTENCIA!P2</f>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <f>EXPERIENCIA!D2</f>
@@ -1525,10 +1522,10 @@
       </c>
       <c r="I2" s="19">
         <f>C2*0.2+D2*0.05+E2*0.05+F2*0.1+G2*0.4+H2*0.2</f>
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1536,8 +1533,8 @@
         <v>45</v>
       </c>
       <c r="C3" s="2">
-        <f>ASISTENCIA!Q3</f>
-        <v>13</v>
+        <f>ASISTENCIA!P3</f>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <f>EXPERIENCIA!D3</f>
@@ -1560,10 +1557,10 @@
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>3.5500000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1571,8 +1568,8 @@
         <v>46</v>
       </c>
       <c r="C4" s="2">
-        <f>ASISTENCIA!Q4</f>
-        <v>14</v>
+        <f>ASISTENCIA!P4</f>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -1595,10 +1592,10 @@
       </c>
       <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>3.5500000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1606,8 +1603,8 @@
         <v>47</v>
       </c>
       <c r="C5" s="2">
-        <f>ASISTENCIA!Q5</f>
-        <v>13</v>
+        <f>ASISTENCIA!P5</f>
+        <v>14</v>
       </c>
       <c r="D5" s="2">
         <f>EXPERIENCIA!D5</f>
@@ -1630,10 +1627,10 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1641,8 +1638,8 @@
         <v>48</v>
       </c>
       <c r="C6" s="2">
-        <f>ASISTENCIA!Q6</f>
-        <v>15</v>
+        <f>ASISTENCIA!P6</f>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
         <f>EXPERIENCIA!D6</f>
@@ -1665,10 +1662,10 @@
       </c>
       <c r="I6" s="19">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1676,8 +1673,8 @@
         <v>49</v>
       </c>
       <c r="C7" s="2">
-        <f>ASISTENCIA!Q7</f>
-        <v>12</v>
+        <f>ASISTENCIA!P7</f>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <f>EXPERIENCIA!D7</f>
@@ -1700,10 +1697,10 @@
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>3.1500000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1711,8 +1708,8 @@
         <v>50</v>
       </c>
       <c r="C8" s="2">
-        <f>ASISTENCIA!Q8</f>
-        <v>15</v>
+        <f>ASISTENCIA!P8</f>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1735,10 +1732,10 @@
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1746,8 +1743,8 @@
         <v>51</v>
       </c>
       <c r="C9" s="2">
-        <f>ASISTENCIA!Q9</f>
-        <v>14</v>
+        <f>ASISTENCIA!P9</f>
+        <v>15</v>
       </c>
       <c r="D9" s="2">
         <f>EXPERIENCIA!D9</f>
@@ -1770,10 +1767,10 @@
       </c>
       <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>3.5500000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1781,8 +1778,8 @@
         <v>52</v>
       </c>
       <c r="C10" s="2">
-        <f>ASISTENCIA!Q10</f>
-        <v>13</v>
+        <f>ASISTENCIA!P10</f>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
         <f>EXPERIENCIA!D10</f>
@@ -1805,10 +1802,10 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" si="0"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1816,8 +1813,8 @@
         <v>53</v>
       </c>
       <c r="C11" s="2">
-        <f>ASISTENCIA!Q11</f>
-        <v>14</v>
+        <f>ASISTENCIA!P11</f>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <f>EXPERIENCIA!D11</f>
@@ -1840,10 +1837,10 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>3.5000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1851,8 +1848,8 @@
         <v>54</v>
       </c>
       <c r="C12" s="2">
-        <f>ASISTENCIA!Q12</f>
-        <v>15</v>
+        <f>ASISTENCIA!P12</f>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <f>EXPERIENCIA!D12</f>
@@ -1875,10 +1872,10 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1886,8 +1883,8 @@
         <v>55</v>
       </c>
       <c r="C13" s="2">
-        <f>ASISTENCIA!Q13</f>
-        <v>13</v>
+        <f>ASISTENCIA!P13</f>
+        <v>15</v>
       </c>
       <c r="D13" s="2">
         <f>EXPERIENCIA!D13</f>
@@ -1910,10 +1907,10 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" si="0"/>
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1921,8 +1918,8 @@
         <v>44</v>
       </c>
       <c r="C14" s="2">
-        <f>ASISTENCIA!Q14</f>
-        <v>13</v>
+        <f>ASISTENCIA!P14</f>
+        <v>14</v>
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
@@ -1945,7 +1942,7 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>3.5500000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1955,27 +1952,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N27" sqref="N27"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="11" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="16" width="9.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="11" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -2022,13 +2019,10 @@
         <v>61</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2039,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
@@ -2048,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>5</v>
@@ -2074,15 +2068,12 @@
       <c r="O2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C2:P2,"F") - COUNTIF(C2:P2,"T")/2,0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P2" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C2:O2,"F") - COUNTIF(C2:O2,"T")/2,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2102,16 +2093,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>5</v>
@@ -2128,15 +2119,12 @@
       <c r="O3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q14" si="0">ROUNDUP( 20 - COUNTIF(C3:P3,"F") - COUNTIF(C3:P3,"T")/2,0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P3" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C3:O3,"F") - COUNTIF(C3:O3,"T")/2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2171,7 +2159,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>5</v>
@@ -2182,15 +2170,12 @@
       <c r="O4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P4" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C4:O4,"F") - COUNTIF(C4:O4,"T")/2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2210,19 +2195,19 @@
         <v>2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>5</v>
@@ -2236,15 +2221,12 @@
       <c r="O5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P5" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C5:O5,"F") - COUNTIF(C5:O5,"T")/2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2255,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>2</v>
@@ -2279,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>5</v>
@@ -2290,15 +2272,12 @@
       <c r="O6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P6" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C6:O6,"F") - COUNTIF(C6:O6,"T")/2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2327,10 +2306,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>5</v>
@@ -2344,15 +2323,12 @@
       <c r="O7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P7" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C7:O7,"F") - COUNTIF(C7:O7,"T")/2,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2381,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>2</v>
@@ -2398,15 +2374,12 @@
       <c r="O8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P8" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C8:O8,"F") - COUNTIF(C8:O8,"T")/2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2435,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>2</v>
@@ -2452,15 +2425,12 @@
       <c r="O9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P9" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C9:O9,"F") - COUNTIF(C9:O9,"T")/2,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2483,16 +2453,16 @@
         <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>5</v>
@@ -2506,15 +2476,12 @@
       <c r="O10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P10" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C10:O10,"F") - COUNTIF(C10:O10,"T")/2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2537,7 +2504,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>5</v>
@@ -2549,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>5</v>
@@ -2560,15 +2527,12 @@
       <c r="O11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P11" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C11:O11,"F") - COUNTIF(C11:O11,"T")/2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2597,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>2</v>
@@ -2614,15 +2578,12 @@
       <c r="O12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P12" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C12:O12,"F") - COUNTIF(C12:O12,"T")/2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2657,7 +2618,7 @@
         <v>2</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>5</v>
@@ -2668,15 +2629,12 @@
       <c r="O13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P13" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C13:O13,"F") - COUNTIF(C13:O13,"T")/2,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2696,19 +2654,19 @@
         <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>5</v>
@@ -2722,15 +2680,12 @@
       <c r="O14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="P14" s="2">
+        <f>ROUNDUP( 20 - COUNTIF(C14:O14,"F") - COUNTIF(C14:O14,"T")/2,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>35</v>
       </c>
@@ -2739,59 +2694,55 @@
         <v>8</v>
       </c>
       <c r="D15" s="21">
-        <f t="shared" ref="D15:J15" si="1">COUNTIF(D2:D14,"=P")</f>
+        <f t="shared" ref="D15:J15" si="0">COUNTIF(D2:D14,"=P")</f>
         <v>11</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J15" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K15" s="21">
-        <f t="shared" ref="K15" si="2">COUNTIF(K2:K14,"=P")</f>
+        <f t="shared" ref="K15" si="1">COUNTIF(K2:K14,"=P")</f>
         <v>7</v>
       </c>
       <c r="L15" s="21">
-        <f t="shared" ref="L15" si="3">COUNTIF(L2:L14,"=P")</f>
-        <v>0</v>
+        <f t="shared" ref="L15" si="2">COUNTIF(L2:L14,"=P")</f>
+        <v>4</v>
       </c>
       <c r="M15" s="21">
-        <f t="shared" ref="M15" si="4">COUNTIF(M2:M14,"=P")</f>
+        <f t="shared" ref="M15" si="3">COUNTIF(M2:M14,"=P")</f>
         <v>0</v>
       </c>
       <c r="N15" s="21">
-        <f t="shared" ref="N15" si="5">COUNTIF(N2:N14,"=P")</f>
+        <f t="shared" ref="N15" si="4">COUNTIF(N2:N14,"=P")</f>
         <v>0</v>
       </c>
       <c r="O15" s="21">
-        <f t="shared" ref="O15" si="6">COUNTIF(O2:O14,"=P")</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="21">
-        <f t="shared" ref="P15" si="7">COUNTIF(P2:P14,"=P")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+        <f t="shared" ref="O15" si="5">COUNTIF(O2:O14,"=P")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>34</v>
       </c>
@@ -2800,59 +2751,55 @@
         <v>0</v>
       </c>
       <c r="D16" s="21">
-        <f t="shared" ref="D16:P16" si="8">COUNTIF(D2:D14,"=T")</f>
+        <f t="shared" ref="D16:O16" si="6">COUNTIF(D2:D14,"=T")</f>
         <v>2</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="J16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="K16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="L16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N16" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O16" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="21">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>36</v>
       </c>
@@ -2861,55 +2808,51 @@
         <v>5</v>
       </c>
       <c r="D17" s="21">
-        <f t="shared" ref="D17:P17" si="9">COUNTIF(D2:D14,"=F")</f>
+        <f t="shared" ref="D17:O17" si="7">COUNTIF(D2:D14,"=F")</f>
         <v>0</v>
       </c>
       <c r="E17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="I17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="L17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="M17" s="21">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="M17" s="21">
-        <f t="shared" si="9"/>
+      <c r="N17" s="21">
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-      <c r="N17" s="21">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
       <c r="O17" s="21">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="P17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
     </row>
@@ -2930,14 +2873,14 @@
       <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -2945,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>7</v>
@@ -2954,7 +2897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2967,7 +2910,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2975,14 +2918,14 @@
         <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="16">
         <v>15</v>
       </c>
       <c r="E3" s="16"/>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2990,14 +2933,14 @@
         <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="16">
         <v>15</v>
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3005,14 +2948,14 @@
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3020,14 +2963,14 @@
         <v>48</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="16">
         <v>15</v>
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3035,14 +2978,14 @@
         <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="16">
         <v>15</v>
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3050,14 +2993,14 @@
         <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="16">
         <v>15</v>
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3065,14 +3008,14 @@
         <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="16">
         <v>15</v>
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3080,14 +3023,14 @@
         <v>52</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3095,14 +3038,14 @@
         <v>53</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="16">
         <v>14</v>
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3110,14 +3053,14 @@
         <v>54</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="16">
         <v>14</v>
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3125,14 +3068,14 @@
         <v>55</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="16">
         <v>15</v>
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3140,7 +3083,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="16">
         <v>15</v>
@@ -3161,13 +3104,13 @@
       <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -3187,7 +3130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3199,7 +3142,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3213,7 +3156,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3227,7 +3170,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3241,7 +3184,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3255,7 +3198,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3269,7 +3212,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3283,7 +3226,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3297,7 +3240,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3311,7 +3254,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3325,7 +3268,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3339,7 +3282,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3353,7 +3296,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3380,15 +3323,15 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -3396,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>14</v>
@@ -3408,7 +3351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3427,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3435,7 +3378,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3448,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3456,7 +3399,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3469,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3477,7 +3420,7 @@
         <v>47</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3490,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3498,7 +3441,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -3511,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3519,7 +3462,7 @@
         <v>49</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3532,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3540,7 +3483,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3553,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3561,7 +3504,7 @@
         <v>51</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3574,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3582,7 +3525,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3595,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3603,7 +3546,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -3616,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3624,7 +3567,7 @@
         <v>54</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3637,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3645,7 +3588,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3658,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3666,7 +3609,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3679,44 +3622,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B20" s="11" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3732,12 +3675,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
@@ -3746,7 +3689,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
@@ -3755,7 +3698,7 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>21</v>
       </c>
@@ -3764,7 +3707,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>22</v>
       </c>
@@ -3773,7 +3716,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>23</v>
       </c>
@@ -3782,7 +3725,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>24</v>
       </c>
@@ -3791,7 +3734,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>25</v>
       </c>
@@ -3800,7 +3743,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>26</v>
       </c>
@@ -3809,7 +3752,7 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>27</v>
       </c>
@@ -3818,7 +3761,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>28</v>
       </c>
@@ -3827,7 +3770,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
@@ -3836,7 +3779,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>30</v>
       </c>
@@ -3845,7 +3788,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>31</v>
       </c>
@@ -3854,35 +3797,35 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1447,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C3" s="2">
         <f>ASISTENCIA!P3</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
         <f>EXPERIENCIA!D3</f>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>3.5500000000000003</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="C5" s="2">
         <f>ASISTENCIA!P5</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2">
         <f>EXPERIENCIA!D5</f>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!P8</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>3.95</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C9" s="2">
         <f>ASISTENCIA!P9</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <f>EXPERIENCIA!D9</f>
@@ -1767,7 +1767,7 @@
       </c>
       <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!P14</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>3.5500000000000003</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
@@ -1954,11 +1954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="P2" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C2:O2,"F") - COUNTIF(C2:O2,"T")/2,0)</f>
+        <f t="shared" ref="P2:P14" si="0">ROUNDUP( 20 - COUNTIF(C2:O2,"F") - COUNTIF(C2:O2,"T")/2,0)</f>
         <v>8</v>
       </c>
     </row>
@@ -2108,7 +2108,7 @@
         <v>5</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>5</v>
@@ -2120,8 +2120,8 @@
         <v>5</v>
       </c>
       <c r="P3" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C3:O3,"F") - COUNTIF(C3:O3,"T")/2,0)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C4:O4,"F") - COUNTIF(C4:O4,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2210,7 +2210,7 @@
         <v>62</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>5</v>
@@ -2222,8 +2222,8 @@
         <v>5</v>
       </c>
       <c r="P5" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C5:O5,"F") - COUNTIF(C5:O5,"T")/2,0)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2273,7 +2273,7 @@
         <v>5</v>
       </c>
       <c r="P6" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C6:O6,"F") - COUNTIF(C6:O6,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C7:O7,"F") - COUNTIF(C7:O7,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>5</v>
@@ -2375,8 +2375,8 @@
         <v>5</v>
       </c>
       <c r="P8" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C8:O8,"F") - COUNTIF(C8:O8,"T")/2,0)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2414,7 +2414,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>5</v>
@@ -2426,8 +2426,8 @@
         <v>5</v>
       </c>
       <c r="P9" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C9:O9,"F") - COUNTIF(C9:O9,"T")/2,0)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2477,7 +2477,7 @@
         <v>5</v>
       </c>
       <c r="P10" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C10:O10,"F") - COUNTIF(C10:O10,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
         <v>5</v>
       </c>
       <c r="P11" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C11:O11,"F") - COUNTIF(C11:O11,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
         <v>5</v>
       </c>
       <c r="P12" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C12:O12,"F") - COUNTIF(C12:O12,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -2630,7 +2630,7 @@
         <v>5</v>
       </c>
       <c r="P13" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C13:O13,"F") - COUNTIF(C13:O13,"T")/2,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
         <v>62</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>5</v>
@@ -2681,8 +2681,8 @@
         <v>5</v>
       </c>
       <c r="P14" s="2">
-        <f>ROUNDUP( 20 - COUNTIF(C14:O14,"F") - COUNTIF(C14:O14,"T")/2,0)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2694,51 +2694,51 @@
         <v>8</v>
       </c>
       <c r="D15" s="21">
-        <f t="shared" ref="D15:J15" si="0">COUNTIF(D2:D14,"=P")</f>
+        <f t="shared" ref="D15:J15" si="1">COUNTIF(D2:D14,"=P")</f>
         <v>11</v>
       </c>
       <c r="E15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J15" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K15" s="21">
-        <f t="shared" ref="K15" si="1">COUNTIF(K2:K14,"=P")</f>
+        <f t="shared" ref="K15" si="2">COUNTIF(K2:K14,"=P")</f>
         <v>7</v>
       </c>
       <c r="L15" s="21">
-        <f t="shared" ref="L15" si="2">COUNTIF(L2:L14,"=P")</f>
-        <v>4</v>
+        <f t="shared" ref="L15" si="3">COUNTIF(L2:L14,"=P")</f>
+        <v>9</v>
       </c>
       <c r="M15" s="21">
-        <f t="shared" ref="M15" si="3">COUNTIF(M2:M14,"=P")</f>
+        <f t="shared" ref="M15" si="4">COUNTIF(M2:M14,"=P")</f>
         <v>0</v>
       </c>
       <c r="N15" s="21">
-        <f t="shared" ref="N15" si="4">COUNTIF(N2:N14,"=P")</f>
+        <f t="shared" ref="N15" si="5">COUNTIF(N2:N14,"=P")</f>
         <v>0</v>
       </c>
       <c r="O15" s="21">
-        <f t="shared" ref="O15" si="5">COUNTIF(O2:O14,"=P")</f>
+        <f t="shared" ref="O15" si="6">COUNTIF(O2:O14,"=P")</f>
         <v>0</v>
       </c>
     </row>
@@ -2751,51 +2751,51 @@
         <v>0</v>
       </c>
       <c r="D16" s="21">
-        <f t="shared" ref="D16:O16" si="6">COUNTIF(D2:D14,"=T")</f>
+        <f t="shared" ref="D16:O16" si="7">COUNTIF(D2:D14,"=T")</f>
         <v>2</v>
       </c>
       <c r="E16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="I16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="J16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="L16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O16" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2808,51 +2808,51 @@
         <v>5</v>
       </c>
       <c r="D17" s="21">
-        <f t="shared" ref="D17:O17" si="7">COUNTIF(D2:D14,"=F")</f>
+        <f t="shared" ref="D17:O17" si="8">COUNTIF(D2:D14,"=F")</f>
         <v>0</v>
       </c>
       <c r="E17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="I17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="J17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="K17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="L17" s="21">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="M17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="N17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="O17" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="76">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -51,9 +51,6 @@
     <t>EXP2</t>
   </si>
   <si>
-    <t>CTRL01</t>
-  </si>
-  <si>
     <t>CTRL02</t>
   </si>
   <si>
@@ -244,13 +241,22 @@
   </si>
   <si>
     <t>Angular JS</t>
+  </si>
+  <si>
+    <t>CONTROL 01</t>
+  </si>
+  <si>
+    <t>CTRL</t>
+  </si>
+  <si>
+    <t>BONO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +319,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +342,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +465,32 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="4" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1447,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,16 +1523,16 @@
         <v>8</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1495,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <f>ASISTENCIA!P2</f>
@@ -1510,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f>PARTICIPACION!F2</f>
+        <f>PARTICIPACION!I3</f>
         <v>0</v>
       </c>
       <c r="G2" s="2">
@@ -1530,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
         <f>ASISTENCIA!P3</f>
@@ -1545,8 +1590,8 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f>PARTICIPACION!F3</f>
-        <v>0</v>
+        <f>PARTICIPACION!I4</f>
+        <v>6</v>
       </c>
       <c r="G3" s="2">
         <f>INVESTIGACION!F3</f>
@@ -1557,7 +1602,7 @@
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>3.75</v>
+        <v>4.3499999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1565,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2">
         <f>ASISTENCIA!P4</f>
@@ -1580,8 +1625,8 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f>PARTICIPACION!F4</f>
-        <v>0</v>
+        <f>PARTICIPACION!I5</f>
+        <v>4</v>
       </c>
       <c r="G4" s="2">
         <f>INVESTIGACION!F4</f>
@@ -1592,7 +1637,7 @@
       </c>
       <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>3.95</v>
+        <v>4.3500000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1600,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2">
         <f>ASISTENCIA!P5</f>
@@ -1608,15 +1653,15 @@
       </c>
       <c r="D5" s="2">
         <f>EXPERIENCIA!D5</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <f>EXPERIENCIA!E5</f>
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f>PARTICIPACION!F5</f>
-        <v>0</v>
+        <f>PARTICIPACION!I6</f>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
         <f>INVESTIGACION!F5</f>
@@ -1627,7 +1672,7 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1635,7 +1680,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2">
         <f>ASISTENCIA!P6</f>
@@ -1650,8 +1695,8 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f>PARTICIPACION!F6</f>
-        <v>0</v>
+        <f>PARTICIPACION!I7</f>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <f>INVESTIGACION!F6</f>
@@ -1662,7 +1707,7 @@
       </c>
       <c r="I6" s="19">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1670,7 +1715,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2">
         <f>ASISTENCIA!P7</f>
@@ -1685,8 +1730,8 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f>PARTICIPACION!F7</f>
-        <v>0</v>
+        <f>PARTICIPACION!I8</f>
+        <v>5</v>
       </c>
       <c r="G7" s="2">
         <f>INVESTIGACION!F7</f>
@@ -1697,7 +1742,7 @@
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1705,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!P8</f>
@@ -1720,8 +1765,8 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f>PARTICIPACION!F8</f>
-        <v>0</v>
+        <f>PARTICIPACION!I9</f>
+        <v>6</v>
       </c>
       <c r="G8" s="2">
         <f>INVESTIGACION!F8</f>
@@ -1732,7 +1777,7 @@
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1740,7 +1785,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
         <f>ASISTENCIA!P9</f>
@@ -1755,8 +1800,8 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <f>PARTICIPACION!F9</f>
-        <v>0</v>
+        <f>PARTICIPACION!I10</f>
+        <v>5</v>
       </c>
       <c r="G9" s="2">
         <f>INVESTIGACION!F9</f>
@@ -1767,7 +1812,7 @@
       </c>
       <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>3.95</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1775,7 +1820,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2">
         <f>ASISTENCIA!P10</f>
@@ -1783,15 +1828,15 @@
       </c>
       <c r="D10" s="2">
         <f>EXPERIENCIA!D10</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <f>EXPERIENCIA!E10</f>
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <f>PARTICIPACION!F10</f>
-        <v>0</v>
+        <f>PARTICIPACION!I11</f>
+        <v>5</v>
       </c>
       <c r="G10" s="2">
         <f>INVESTIGACION!F10</f>
@@ -1802,7 +1847,7 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" si="0"/>
-        <v>2.8000000000000003</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1810,7 +1855,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2">
         <f>ASISTENCIA!P11</f>
@@ -1825,8 +1870,8 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f>PARTICIPACION!F11</f>
-        <v>0</v>
+        <f>PARTICIPACION!I12</f>
+        <v>6</v>
       </c>
       <c r="G11" s="2">
         <f>INVESTIGACION!F11</f>
@@ -1837,7 +1882,7 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1845,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
         <f>ASISTENCIA!P12</f>
@@ -1860,8 +1905,8 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f>PARTICIPACION!F12</f>
-        <v>0</v>
+        <f>PARTICIPACION!I13</f>
+        <v>3</v>
       </c>
       <c r="G12" s="2">
         <f>INVESTIGACION!F12</f>
@@ -1872,7 +1917,7 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>3.9000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1880,7 +1925,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2">
         <f>ASISTENCIA!P13</f>
@@ -1895,8 +1940,8 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <f>PARTICIPACION!F13</f>
-        <v>0</v>
+        <f>PARTICIPACION!I14</f>
+        <v>5</v>
       </c>
       <c r="G13" s="2">
         <f>INVESTIGACION!F13</f>
@@ -1907,7 +1952,7 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1915,7 +1960,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!P14</f>
@@ -1930,8 +1975,8 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <f>PARTICIPACION!F14</f>
-        <v>0</v>
+        <f>PARTICIPACION!I15</f>
+        <v>4</v>
       </c>
       <c r="G14" s="2">
         <f>INVESTIGACION!F14</f>
@@ -1942,7 +1987,7 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1974,49 +2019,49 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>4</v>
@@ -2027,13 +2072,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>5</v>
@@ -2042,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>5</v>
@@ -2078,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -2093,16 +2138,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>5</v>
@@ -2129,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>5</v>
@@ -2180,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>2</v>
@@ -2195,19 +2240,19 @@
         <v>2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>2</v>
@@ -2231,13 +2276,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>2</v>
@@ -2282,7 +2327,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>5</v>
@@ -2306,10 +2351,10 @@
         <v>5</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>5</v>
@@ -2333,7 +2378,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>2</v>
@@ -2357,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>2</v>
@@ -2384,7 +2429,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
@@ -2408,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>2</v>
@@ -2435,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>2</v>
@@ -2453,16 +2498,16 @@
         <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L10" s="9" t="s">
         <v>5</v>
@@ -2486,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>2</v>
@@ -2504,7 +2549,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>5</v>
@@ -2537,7 +2582,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>2</v>
@@ -2561,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>2</v>
@@ -2588,7 +2633,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>5</v>
@@ -2639,7 +2684,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>2</v>
@@ -2654,19 +2699,19 @@
         <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L14" s="9" t="s">
         <v>2</v>
@@ -2687,7 +2732,7 @@
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="21">
         <f>COUNTIF(C2:C14,"=P")</f>
@@ -2744,7 +2789,7 @@
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="21">
         <f>COUNTIF(C2:C14,"=T")</f>
@@ -2801,7 +2846,7 @@
     </row>
     <row r="17" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="21">
         <f>COUNTIF(C2:C14,"=F")</f>
@@ -2870,7 +2915,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+      <selection activeCell="C3" sqref="C3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,13 +2927,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>7</v>
@@ -2902,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="16">
@@ -2915,10 +2960,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="16">
         <v>15</v>
@@ -2930,10 +2975,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="16">
         <v>15</v>
@@ -2945,13 +2990,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5" s="16"/>
     </row>
@@ -2960,10 +3005,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="16">
         <v>15</v>
@@ -2975,10 +3020,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="16">
         <v>15</v>
@@ -2990,10 +3035,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="16">
         <v>15</v>
@@ -3005,10 +3050,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="16">
         <v>15</v>
@@ -3020,13 +3065,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" s="16"/>
     </row>
@@ -3035,10 +3080,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="16">
         <v>14</v>
@@ -3050,10 +3095,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="16">
         <v>14</v>
@@ -3065,10 +3110,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="16">
         <v>15</v>
@@ -3080,10 +3125,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="16">
         <v>15</v>
@@ -3098,220 +3143,473 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="17" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32">
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0</v>
+      </c>
+      <c r="F3" s="34">
+        <f>D3+E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="H3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <f>ROUNDUP((SUM(F3,G3,H3) - MIN(F3,G3:H3))/2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="34">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34">
+        <f>D4+E4</f>
+        <v>12</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0</v>
+      </c>
+      <c r="H4" s="34">
+        <v>0</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" ref="I4:I15" si="0">ROUNDUP((SUM(F4,G4,H4) - MIN(F4,G4:H4))/2,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="34">
+        <v>8</v>
+      </c>
+      <c r="E5" s="32">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" ref="F5:F15" si="1">D5+E5</f>
+        <v>8</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0</v>
+      </c>
+      <c r="H5" s="34">
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="34">
+        <v>14</v>
+      </c>
+      <c r="E6" s="32">
+        <v>0</v>
+      </c>
+      <c r="F6" s="34">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G6" s="34">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="34">
+        <v>14</v>
+      </c>
+      <c r="E7" s="36">
+        <v>5</v>
+      </c>
+      <c r="F7" s="34">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="G7" s="34">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>6</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="34">
+        <v>10</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>7</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="34">
+        <v>6</v>
+      </c>
+      <c r="E9" s="32">
+        <v>5</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>8</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="34">
+        <v>10</v>
+      </c>
+      <c r="E10" s="32">
+        <v>0</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="34">
+        <v>10</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="34">
         <v>12</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G12" s="34">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <v>0</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>11</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="34">
+        <v>6</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="34">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>12</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="34">
+        <v>10</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0</v>
+      </c>
+      <c r="I14" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="34">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="E15" s="36">
+        <v>0</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="34">
+        <v>0</v>
+      </c>
+      <c r="H15" s="34">
+        <v>0</v>
+      </c>
+      <c r="I15" s="34">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2">
-        <v>10</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3333,22 +3631,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3356,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="2">
@@ -3375,10 +3673,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -3396,10 +3694,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3417,10 +3715,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -3438,10 +3736,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -3459,10 +3757,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -3480,10 +3778,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -3501,10 +3799,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -3522,10 +3820,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -3543,10 +3841,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -3564,10 +3862,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -3585,10 +3883,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -3606,10 +3904,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -3624,42 +3922,42 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +3980,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -3691,7 +3989,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -3700,7 +3998,7 @@
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -3709,7 +4007,7 @@
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -3718,7 +4016,7 @@
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
@@ -3727,7 +4025,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -3736,7 +4034,7 @@
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -3745,7 +4043,7 @@
     </row>
     <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -3754,7 +4052,7 @@
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -3763,7 +4061,7 @@
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -3772,7 +4070,7 @@
     </row>
     <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -3781,7 +4079,7 @@
     </row>
     <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -3790,7 +4088,7 @@
     </row>
     <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -466,12 +466,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -488,6 +482,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="F3" s="2">
         <f>PARTICIPACION!I4</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
         <f>INVESTIGACION!F3</f>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>4.3499999999999996</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="C7" s="2">
         <f>ASISTENCIA!P7</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <f>EXPERIENCIA!D7</f>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>3.85</v>
+        <v>4.0500000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F9" s="2">
         <f>PARTICIPACION!I10</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2">
         <f>INVESTIGACION!F9</f>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>4.45</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="F14" s="2">
         <f>PARTICIPACION!I15</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2">
         <f>INVESTIGACION!F14</f>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>4.1500000000000004</v>
+        <v>4.45</v>
       </c>
     </row>
   </sheetData>
@@ -1999,11 +1999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,7 +2357,7 @@
         <v>61</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>5</v>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2612,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>5</v>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="L16" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" s="21">
         <f t="shared" si="7"/>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="L17" s="21">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" s="21">
         <f t="shared" si="8"/>
@@ -2915,7 +2915,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,7 +3146,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3159,35 +3159,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="15" t="s">
@@ -3201,404 +3201,404 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32">
-        <v>0</v>
-      </c>
-      <c r="E3" s="32">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
         <f>D3+E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="34">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="34">
+      <c r="G3" s="32">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0</v>
+      </c>
+      <c r="I3" s="32">
         <f>ROUNDUP((SUM(F3,G3,H3) - MIN(F3,G3:H3))/2,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="30">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="32">
         <v>12</v>
       </c>
-      <c r="E4" s="32">
-        <v>0</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="E4" s="30">
+        <v>5</v>
+      </c>
+      <c r="F4" s="32">
         <f>D4+E4</f>
-        <v>12</v>
-      </c>
-      <c r="G4" s="34">
-        <v>0</v>
-      </c>
-      <c r="H4" s="34">
-        <v>0</v>
-      </c>
-      <c r="I4" s="34">
+        <v>17</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
         <f t="shared" ref="I4:I15" si="0">ROUNDUP((SUM(F4,G4,H4) - MIN(F4,G4:H4))/2,0)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <v>8</v>
       </c>
-      <c r="E5" s="32">
-        <v>0</v>
-      </c>
-      <c r="F5" s="34">
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
         <f t="shared" ref="F5:F15" si="1">D5+E5</f>
         <v>8</v>
       </c>
-      <c r="G5" s="34">
-        <v>0</v>
-      </c>
-      <c r="H5" s="34">
-        <v>0</v>
-      </c>
-      <c r="I5" s="34">
+      <c r="G5" s="32">
+        <v>0</v>
+      </c>
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="32">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
+      <c r="A6" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>14</v>
       </c>
-      <c r="E6" s="32">
-        <v>0</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G6" s="34">
-        <v>0</v>
-      </c>
-      <c r="H6" s="34">
-        <v>0</v>
-      </c>
-      <c r="I6" s="34">
+      <c r="G6" s="32">
+        <v>0</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
-        <v>5</v>
-      </c>
-      <c r="B7" s="35" t="s">
+      <c r="A7" s="30">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="32">
         <v>14</v>
       </c>
-      <c r="E7" s="36">
-        <v>5</v>
-      </c>
-      <c r="F7" s="34">
+      <c r="E7" s="34">
+        <v>5</v>
+      </c>
+      <c r="F7" s="32">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34">
+      <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="32">
+      <c r="A8" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>10</v>
       </c>
-      <c r="E8" s="32">
-        <v>0</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G8" s="34">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34">
-        <v>0</v>
-      </c>
-      <c r="I8" s="34">
+      <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>6</v>
       </c>
-      <c r="E9" s="32">
-        <v>5</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="E9" s="30">
+        <v>5</v>
+      </c>
+      <c r="F9" s="32">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="G9" s="34">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34">
+      <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="32">
         <v>10</v>
       </c>
-      <c r="E10" s="32">
-        <v>0</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="E10" s="30">
+        <v>5</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>9</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="32">
+        <v>10</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G10" s="34">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0</v>
-      </c>
-      <c r="I10" s="34">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
-        <v>9</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
         <v>10</v>
       </c>
-      <c r="E11" s="36">
-        <v>0</v>
-      </c>
-      <c r="F11" s="34">
+      <c r="B12" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="32">
+        <v>12</v>
+      </c>
+      <c r="E12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0</v>
+      </c>
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>11</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="32">
+        <v>6</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>12</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="32">
+        <v>10</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G11" s="34">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <v>0</v>
-      </c>
-      <c r="I11" s="34">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
-        <v>10</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="34">
-        <v>12</v>
-      </c>
-      <c r="E12" s="36">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="32">
+        <v>0</v>
+      </c>
+      <c r="I14" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>13</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="32">
+        <v>8</v>
+      </c>
+      <c r="E15" s="34">
+        <v>5</v>
+      </c>
+      <c r="F15" s="32">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
-        <v>11</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="34">
-        <v>6</v>
-      </c>
-      <c r="E13" s="36">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="G13" s="34">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
-        <v>12</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="34">
-        <v>10</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0</v>
-      </c>
-      <c r="F14" s="34">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0</v>
-      </c>
-      <c r="I14" s="34">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
         <v>13</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="34">
-        <v>8</v>
-      </c>
-      <c r="E15" s="36">
-        <v>0</v>
-      </c>
-      <c r="F15" s="34">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G15" s="34">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
-        <v>0</v>
-      </c>
-      <c r="I15" s="34">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3618,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="F11" s="2">
         <f>PARTICIPACION!I12</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G11" s="2">
         <f>INVESTIGACION!F11</f>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="F12" s="2">
         <f>PARTICIPACION!I13</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G12" s="2">
         <f>INVESTIGACION!F12</f>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1999,11 +1999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3145,8 +3145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3491,11 +3491,11 @@
         <v>12</v>
       </c>
       <c r="E12" s="34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="32">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G12" s="32">
         <v>0</v>
@@ -3505,7 +3505,7 @@
       </c>
       <c r="I12" s="32">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3522,21 +3522,21 @@
         <v>6</v>
       </c>
       <c r="E13" s="34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="32">
         <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0</v>
+      </c>
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="32">
+        <f t="shared" si="0"/>
         <v>6</v>
-      </c>
-      <c r="G13" s="32">
-        <v>0</v>
-      </c>
-      <c r="H13" s="32">
-        <v>0</v>
-      </c>
-      <c r="I13" s="32">
-        <f t="shared" si="0"/>
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="C3" s="2">
         <f>ASISTENCIA!P3</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <f>EXPERIENCIA!D3</f>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>4.6500000000000004</v>
+        <v>4.8500000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="C4" s="2">
         <f>ASISTENCIA!P4</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>4.3500000000000005</v>
+        <v>4.5500000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="C6" s="2">
         <f>ASISTENCIA!P6</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <f>EXPERIENCIA!D6</f>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="I6" s="19">
         <f t="shared" si="0"/>
-        <v>5.15</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!P8</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>4.9499999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="C11" s="2">
         <f>ASISTENCIA!P11</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="2">
         <f>EXPERIENCIA!D11</f>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>4.8000000000000007</v>
+        <v>5.0000000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
       </c>
       <c r="C12" s="2">
         <f>ASISTENCIA!P12</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2">
         <f>EXPERIENCIA!D12</f>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.7000000000000011</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="C13" s="2">
         <f>ASISTENCIA!P13</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2">
         <f>EXPERIENCIA!D13</f>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!P14</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>4.45</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1999,11 +1999,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,8 +2012,8 @@
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="11" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="12" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2156,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>5</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="P3" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>5</v>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2309,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>5</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2411,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>5</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2564,7 +2564,7 @@
         <v>2</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>5</v>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="P11" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2615,7 +2615,7 @@
         <v>61</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>5</v>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="P12" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2666,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>5</v>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="P13" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>5</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="P14" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="M15" s="21">
         <f t="shared" ref="M15" si="4">COUNTIF(M2:M14,"=P")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N15" s="21">
         <f t="shared" ref="N15" si="5">COUNTIF(N2:N14,"=P")</f>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="M17" s="21">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N17" s="21">
         <f t="shared" si="8"/>
@@ -3145,7 +3145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -2003,7 +2003,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>5</v>
@@ -2360,7 +2360,7 @@
         <v>61</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>5</v>
@@ -2462,7 +2462,7 @@
         <v>2</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>5</v>
@@ -2513,7 +2513,7 @@
         <v>5</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>5</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="M16" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="21">
         <f t="shared" si="7"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="M17" s="21">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17" s="21">
         <f t="shared" si="8"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -391,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,6 +481,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1496,17 +1499,17 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" style="1"/>
+    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1570,7 +1573,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1587,7 +1590,7 @@
       </c>
       <c r="E3" s="2">
         <f>EXPERIENCIA!E3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2">
         <f>PARTICIPACION!I4</f>
@@ -1602,10 +1605,10 @@
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>4.8500000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1622,7 +1625,7 @@
       </c>
       <c r="E4" s="2">
         <f>EXPERIENCIA!E4</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2">
         <f>PARTICIPACION!I5</f>
@@ -1637,10 +1640,10 @@
       </c>
       <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>4.5500000000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.2500000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1657,7 +1660,7 @@
       </c>
       <c r="E5" s="2">
         <f>EXPERIENCIA!E5</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
         <f>PARTICIPACION!I6</f>
@@ -1672,10 +1675,10 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" si="0"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1692,7 +1695,7 @@
       </c>
       <c r="E6" s="2">
         <f>EXPERIENCIA!E6</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
         <f>PARTICIPACION!I7</f>
@@ -1707,10 +1710,10 @@
       </c>
       <c r="I6" s="19">
         <f t="shared" si="0"/>
-        <v>5.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>6.1499999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1727,7 +1730,7 @@
       </c>
       <c r="E7" s="2">
         <f>EXPERIENCIA!E7</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
         <f>PARTICIPACION!I8</f>
@@ -1742,10 +1745,10 @@
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>4.0500000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1762,7 +1765,7 @@
       </c>
       <c r="E8" s="2">
         <f>EXPERIENCIA!E8</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <f>PARTICIPACION!I9</f>
@@ -1777,10 +1780,10 @@
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>4.9499999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1797,7 +1800,7 @@
       </c>
       <c r="E9" s="2">
         <f>EXPERIENCIA!E9</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2">
         <f>PARTICIPACION!I10</f>
@@ -1812,10 +1815,10 @@
       </c>
       <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1867,7 +1870,7 @@
       </c>
       <c r="E11" s="2">
         <f>EXPERIENCIA!E11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2">
         <f>PARTICIPACION!I12</f>
@@ -1882,10 +1885,10 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>5.0000000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.7500000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1902,7 +1905,7 @@
       </c>
       <c r="E12" s="2">
         <f>EXPERIENCIA!E12</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2">
         <f>PARTICIPACION!I13</f>
@@ -1917,10 +1920,10 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>4.7000000000000011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5.4500000000000011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>4.45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1972,7 +1975,7 @@
       </c>
       <c r="E14" s="2">
         <f>EXPERIENCIA!E14</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2">
         <f>PARTICIPACION!I15</f>
@@ -1987,7 +1990,7 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>4.6500000000000004</v>
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>
@@ -1999,25 +2002,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="12" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="12" width="9.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="15" width="9.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2424,7 +2427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2475,7 +2478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2730,7 +2733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="20" t="s">
         <v>34</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
         <v>33</v>
       </c>
@@ -2844,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" ht="18" x14ac:dyDescent="0.35">
       <c r="B17" s="20" t="s">
         <v>35</v>
       </c>
@@ -2915,24 +2918,24 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -2942,7 +2945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2955,7 +2958,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2968,9 +2971,11 @@
       <c r="D3" s="16">
         <v>15</v>
       </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2983,9 +2988,11 @@
       <c r="D4" s="16">
         <v>15</v>
       </c>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -2998,9 +3005,11 @@
       <c r="D5" s="16">
         <v>14</v>
       </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3013,9 +3022,11 @@
       <c r="D6" s="16">
         <v>15</v>
       </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3028,9 +3039,11 @@
       <c r="D7" s="16">
         <v>15</v>
       </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3043,9 +3056,11 @@
       <c r="D8" s="16">
         <v>15</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3058,9 +3073,11 @@
       <c r="D9" s="16">
         <v>15</v>
       </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3075,7 +3092,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3088,9 +3105,11 @@
       <c r="D11" s="16">
         <v>14</v>
       </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3103,9 +3122,11 @@
       <c r="D12" s="16">
         <v>14</v>
       </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3120,7 +3141,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3133,7 +3154,9 @@
       <c r="D14" s="16">
         <v>15</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="16">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3145,42 +3168,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="37"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="36" t="s">
         <v>74</v>
       </c>
@@ -3200,7 +3223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>1</v>
       </c>
@@ -3229,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>2</v>
       </c>
@@ -3260,7 +3283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -3291,7 +3314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>4</v>
       </c>
@@ -3322,7 +3345,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>5</v>
       </c>
@@ -3353,7 +3376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>6</v>
       </c>
@@ -3384,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>7</v>
       </c>
@@ -3415,7 +3438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>8</v>
       </c>
@@ -3446,7 +3469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>9</v>
       </c>
@@ -3477,7 +3500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>10</v>
       </c>
@@ -3508,7 +3531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>11</v>
       </c>
@@ -3539,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>12</v>
       </c>
@@ -3570,7 +3593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>13</v>
       </c>
@@ -3621,15 +3644,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
@@ -3649,7 +3672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3668,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3689,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3710,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3731,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3752,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3773,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3794,7 +3817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3815,7 +3838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3836,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3857,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3878,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3899,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3920,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>63</v>
       </c>
@@ -3928,7 +3951,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -3936,7 +3959,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -3944,7 +3967,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -3952,7 +3975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -3973,12 +3996,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
@@ -3987,7 +4010,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>19</v>
       </c>
@@ -3996,7 +4019,7 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>20</v>
       </c>
@@ -4005,7 +4028,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>21</v>
       </c>
@@ -4014,7 +4037,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
@@ -4023,7 +4046,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>23</v>
       </c>
@@ -4032,7 +4055,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>24</v>
       </c>
@@ -4041,7 +4064,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>25</v>
       </c>
@@ -4050,7 +4073,7 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>26</v>
       </c>
@@ -4059,7 +4082,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -4068,7 +4091,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>28</v>
       </c>
@@ -4077,7 +4100,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>29</v>
       </c>
@@ -4086,7 +4109,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
@@ -4095,35 +4118,35 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -352,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -386,12 +386,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,6 +519,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1496,20 +1528,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.44140625" style="1"/>
-    <col min="7" max="7" width="13.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1538,7 +1570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1573,7 +1605,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1594,7 +1626,7 @@
       </c>
       <c r="F3" s="2">
         <f>PARTICIPACION!I4</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2">
         <f>INVESTIGACION!F3</f>
@@ -1605,10 +1637,10 @@
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>5.6000000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1617,7 +1649,7 @@
       </c>
       <c r="C4" s="2">
         <f>ASISTENCIA!P4</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -1629,7 +1661,7 @@
       </c>
       <c r="F4" s="2">
         <f>PARTICIPACION!I5</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2">
         <f>INVESTIGACION!F4</f>
@@ -1640,10 +1672,10 @@
       </c>
       <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>5.2500000000000009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1652,7 +1684,7 @@
       </c>
       <c r="C5" s="2">
         <f>ASISTENCIA!P5</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <f>EXPERIENCIA!D5</f>
@@ -1664,7 +1696,7 @@
       </c>
       <c r="F5" s="2">
         <f>PARTICIPACION!I6</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2">
         <f>INVESTIGACION!F5</f>
@@ -1675,10 +1707,10 @@
       </c>
       <c r="I5" s="19">
         <f t="shared" si="0"/>
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1687,7 +1719,7 @@
       </c>
       <c r="C6" s="2">
         <f>ASISTENCIA!P6</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <f>EXPERIENCIA!D6</f>
@@ -1699,7 +1731,7 @@
       </c>
       <c r="F6" s="2">
         <f>PARTICIPACION!I7</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2">
         <f>INVESTIGACION!F6</f>
@@ -1710,10 +1742,10 @@
       </c>
       <c r="I6" s="19">
         <f t="shared" si="0"/>
-        <v>6.1499999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>7.0500000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1734,7 +1766,7 @@
       </c>
       <c r="F7" s="2">
         <f>PARTICIPACION!I8</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2">
         <f>INVESTIGACION!F7</f>
@@ -1745,10 +1777,10 @@
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1757,7 +1789,7 @@
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!P8</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1769,7 +1801,7 @@
       </c>
       <c r="F8" s="2">
         <f>PARTICIPACION!I9</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2">
         <f>INVESTIGACION!F8</f>
@@ -1780,10 +1812,10 @@
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>6.3500000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1804,7 +1836,7 @@
       </c>
       <c r="F9" s="2">
         <f>PARTICIPACION!I10</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2">
         <f>INVESTIGACION!F9</f>
@@ -1815,10 +1847,10 @@
       </c>
       <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1827,7 +1859,7 @@
       </c>
       <c r="C10" s="2">
         <f>ASISTENCIA!P10</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2">
         <f>EXPERIENCIA!D10</f>
@@ -1835,7 +1867,7 @@
       </c>
       <c r="E10" s="2">
         <f>EXPERIENCIA!E10</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
         <f>PARTICIPACION!I11</f>
@@ -1850,10 +1882,10 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1862,7 +1894,7 @@
       </c>
       <c r="C11" s="2">
         <f>ASISTENCIA!P11</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <f>EXPERIENCIA!D11</f>
@@ -1874,7 +1906,7 @@
       </c>
       <c r="F11" s="2">
         <f>PARTICIPACION!I12</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2">
         <f>INVESTIGACION!F11</f>
@@ -1885,10 +1917,10 @@
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>5.7500000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1897,7 +1929,7 @@
       </c>
       <c r="C12" s="2">
         <f>ASISTENCIA!P12</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <f>EXPERIENCIA!D12</f>
@@ -1909,7 +1941,7 @@
       </c>
       <c r="F12" s="2">
         <f>PARTICIPACION!I13</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
         <f>INVESTIGACION!F12</f>
@@ -1920,10 +1952,10 @@
       </c>
       <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>5.4500000000000011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1940,11 +1972,11 @@
       </c>
       <c r="E13" s="2">
         <f>EXPERIENCIA!E13</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2">
         <f>PARTICIPACION!I14</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
         <f>INVESTIGACION!F13</f>
@@ -1955,10 +1987,10 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" si="0"/>
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1967,7 +1999,7 @@
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!P14</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
@@ -1979,7 +2011,7 @@
       </c>
       <c r="F14" s="2">
         <f>PARTICIPACION!I15</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2">
         <f>INVESTIGACION!F14</f>
@@ -1990,7 +2022,7 @@
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
@@ -2006,21 +2038,21 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="12" width="9.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="13" width="9.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -2070,7 +2102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2121,7 +2153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2162,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>5</v>
@@ -2172,7 +2204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2213,17 +2245,17 @@
         <v>2</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2264,17 +2296,17 @@
         <v>61</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2315,17 +2347,17 @@
         <v>2</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2376,7 +2408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2417,17 +2449,17 @@
         <v>2</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2478,7 +2510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2519,17 +2551,17 @@
         <v>61</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2570,17 +2602,17 @@
         <v>2</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2621,17 +2653,17 @@
         <v>2</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2682,7 +2714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2723,17 +2755,17 @@
         <v>2</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>34</v>
       </c>
@@ -2783,14 +2815,14 @@
       </c>
       <c r="N15" s="21">
         <f t="shared" ref="N15" si="5">COUNTIF(N2:N14,"=P")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O15" s="21">
         <f t="shared" ref="O15" si="6">COUNTIF(O2:O14,"=P")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
         <v>33</v>
       </c>
@@ -2840,14 +2872,14 @@
       </c>
       <c r="N16" s="21">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="21">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
         <v>35</v>
       </c>
@@ -2897,7 +2929,7 @@
       </c>
       <c r="N17" s="21">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O17" s="21">
         <f t="shared" si="8"/>
@@ -2918,17 +2950,17 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>32</v>
       </c>
@@ -2945,7 +2977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2958,7 +2990,7 @@
       </c>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2975,7 +3007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -2992,7 +3024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3009,7 +3041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3026,7 +3058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3043,7 +3075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3060,7 +3092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3077,7 +3109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3090,9 +3122,11 @@
       <c r="D10" s="16">
         <v>14</v>
       </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="E10" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3109,7 +3143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3126,7 +3160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3139,9 +3173,11 @@
       <c r="D13" s="16">
         <v>15</v>
       </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="E13" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3169,19 +3205,19 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="8.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>32</v>
       </c>
@@ -3196,11 +3232,15 @@
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="G1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>10</v>
+      </c>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="38"/>
@@ -3213,17 +3253,13 @@
       <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>1</v>
       </c>
@@ -3252,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>2</v>
       </c>
@@ -3273,17 +3309,17 @@
         <v>17</v>
       </c>
       <c r="G4" s="32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H4" s="32">
         <v>0</v>
       </c>
       <c r="I4" s="32">
         <f t="shared" ref="I4:I15" si="0">ROUNDUP((SUM(F4,G4,H4) - MIN(F4,G4:H4))/2,0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>3</v>
       </c>
@@ -3304,17 +3340,17 @@
         <v>8</v>
       </c>
       <c r="G5" s="32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H5" s="32">
         <v>0</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>4</v>
       </c>
@@ -3335,17 +3371,17 @@
         <v>14</v>
       </c>
       <c r="G6" s="32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H6" s="32">
         <v>0</v>
       </c>
       <c r="I6" s="32">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>5</v>
       </c>
@@ -3366,17 +3402,17 @@
         <v>19</v>
       </c>
       <c r="G7" s="32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H7" s="32">
         <v>0</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>6</v>
       </c>
@@ -3397,17 +3433,17 @@
         <v>10</v>
       </c>
       <c r="G8" s="32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H8" s="32">
         <v>0</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>7</v>
       </c>
@@ -3428,17 +3464,17 @@
         <v>11</v>
       </c>
       <c r="G9" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H9" s="32">
         <v>0</v>
       </c>
       <c r="I9" s="32">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>8</v>
       </c>
@@ -3459,17 +3495,17 @@
         <v>15</v>
       </c>
       <c r="G10" s="32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H10" s="32">
         <v>0</v>
       </c>
       <c r="I10" s="32">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
         <v>9</v>
       </c>
@@ -3500,7 +3536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>10</v>
       </c>
@@ -3521,17 +3557,17 @@
         <v>17</v>
       </c>
       <c r="G12" s="32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H12" s="32">
         <v>0</v>
       </c>
       <c r="I12" s="32">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>11</v>
       </c>
@@ -3552,17 +3588,17 @@
         <v>11</v>
       </c>
       <c r="G13" s="32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H13" s="32">
         <v>0</v>
       </c>
       <c r="I13" s="32">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>12</v>
       </c>
@@ -3583,17 +3619,17 @@
         <v>10</v>
       </c>
       <c r="G14" s="32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="32">
         <v>0</v>
       </c>
       <c r="I14" s="32">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>13</v>
       </c>
@@ -3614,22 +3650,24 @@
         <v>13</v>
       </c>
       <c r="G15" s="32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H15" s="32">
         <v>0</v>
       </c>
       <c r="I15" s="32">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3644,15 +3682,15 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
@@ -3672,7 +3710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -3691,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -3712,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -3733,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -3754,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -3775,7 +3813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -3796,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -3817,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -3838,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -3859,7 +3897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -3880,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -3901,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -3922,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -3943,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>63</v>
       </c>
@@ -3951,7 +3989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -3959,7 +3997,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -3967,7 +4005,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -3975,7 +4013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
@@ -3996,12 +4034,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
@@ -4010,7 +4048,7 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>19</v>
       </c>
@@ -4019,7 +4057,7 @@
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>20</v>
       </c>
@@ -4028,7 +4066,7 @@
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>21</v>
       </c>
@@ -4037,7 +4075,7 @@
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
     </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
@@ -4046,7 +4084,7 @@
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>23</v>
       </c>
@@ -4055,7 +4093,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>24</v>
       </c>
@@ -4064,7 +4102,7 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>25</v>
       </c>
@@ -4073,7 +4111,7 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>26</v>
       </c>
@@ -4082,7 +4120,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
@@ -4091,7 +4129,7 @@
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
     </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>28</v>
       </c>
@@ -4100,7 +4138,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>29</v>
       </c>
@@ -4109,7 +4147,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
     </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
@@ -4118,35 +4156,35 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -512,6 +512,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,12 +525,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1528,7 +1528,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="F10" s="2">
         <f>PARTICIPACION!I11</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2">
         <f>INVESTIGACION!F10</f>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="I10" s="19">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3205,45 +3205,45 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="38" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="38"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="36" t="s">
         <v>74</v>
       </c>
@@ -3253,8 +3253,8 @@
       <c r="F2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="17" t="s">
         <v>11</v>
       </c>
@@ -3526,14 +3526,14 @@
         <v>10</v>
       </c>
       <c r="G11" s="32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H11" s="32">
         <v>0</v>
       </c>
       <c r="I11" s="32">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="C7" s="2">
         <f>ASISTENCIA!P7</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2">
         <f>EXPERIENCIA!D7</f>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>5.35</v>
+        <v>5.5500000000000007</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="C9" s="2">
         <f>ASISTENCIA!P9</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <f>EXPERIENCIA!D9</f>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C13" s="2">
         <f>ASISTENCIA!P13</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <f>EXPERIENCIA!D13</f>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="I13" s="19">
         <f t="shared" si="0"/>
-        <v>5.65</v>
+        <v>5.8500000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2034,11 +2034,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,14 +2398,14 @@
         <v>61</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2500,14 +2500,14 @@
         <v>61</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2704,14 +2704,14 @@
         <v>2</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="N16" s="21">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O16" s="21">
         <f t="shared" si="7"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="N17" s="21">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O17" s="21">
         <f t="shared" si="8"/>
@@ -3204,7 +3204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="77">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>BONO</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -1527,15 +1530,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="1"/>
+    <col min="4" max="6" width="11.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
@@ -1614,7 +1617,7 @@
       </c>
       <c r="C3" s="2">
         <f>ASISTENCIA!P3</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
         <f>EXPERIENCIA!D3</f>
@@ -1630,14 +1633,14 @@
       </c>
       <c r="G3" s="2">
         <f>INVESTIGACION!F3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:I14" si="0">C3*0.2+D3*0.05+E3*0.05+F3*0.1+G3*0.4+H3*0.2</f>
-        <v>6.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1649,7 +1652,7 @@
       </c>
       <c r="C4" s="2">
         <f>ASISTENCIA!P4</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <f>EXPERIENCIA!D4</f>
@@ -1665,14 +1668,14 @@
       </c>
       <c r="G4" s="2">
         <f>INVESTIGACION!F4</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>6.15</v>
+        <v>13.55</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1684,7 +1687,7 @@
       </c>
       <c r="C5" s="2">
         <f>ASISTENCIA!P5</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2">
         <f>EXPERIENCIA!D5</f>
@@ -1700,14 +1703,14 @@
       </c>
       <c r="G5" s="2">
         <f>INVESTIGACION!F5</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" si="0"/>
-        <v>5.95</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1719,7 +1722,7 @@
       </c>
       <c r="C6" s="2">
         <f>ASISTENCIA!P6</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <f>EXPERIENCIA!D6</f>
@@ -1735,14 +1738,14 @@
       </c>
       <c r="G6" s="2">
         <f>INVESTIGACION!F6</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="0"/>
-        <v>7.0500000000000007</v>
+        <v>15.450000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1754,7 +1757,7 @@
       </c>
       <c r="C7" s="2">
         <f>ASISTENCIA!P7</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <f>EXPERIENCIA!D7</f>
@@ -1770,14 +1773,14 @@
       </c>
       <c r="G7" s="2">
         <f>INVESTIGACION!F7</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>5.5500000000000007</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1789,7 +1792,7 @@
       </c>
       <c r="C8" s="2">
         <f>ASISTENCIA!P8</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <f>EXPERIENCIA!D8</f>
@@ -1805,14 +1808,14 @@
       </c>
       <c r="G8" s="2">
         <f>INVESTIGACION!F8</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>6.3500000000000005</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1824,7 +1827,7 @@
       </c>
       <c r="C9" s="2">
         <f>ASISTENCIA!P9</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <f>EXPERIENCIA!D9</f>
@@ -1840,14 +1843,14 @@
       </c>
       <c r="G9" s="2">
         <f>INVESTIGACION!F9</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I9" s="19">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1859,7 +1862,7 @@
       </c>
       <c r="C10" s="2">
         <f>ASISTENCIA!P10</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <f>EXPERIENCIA!D10</f>
@@ -1875,14 +1878,14 @@
       </c>
       <c r="G10" s="2">
         <f>INVESTIGACION!F10</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I10" s="19">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>15.100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1894,7 +1897,7 @@
       </c>
       <c r="C11" s="2">
         <f>ASISTENCIA!P11</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <f>EXPERIENCIA!D11</f>
@@ -1910,14 +1913,14 @@
       </c>
       <c r="G11" s="2">
         <f>INVESTIGACION!F11</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>6.55</v>
+        <v>15.95</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1929,7 +1932,7 @@
       </c>
       <c r="C12" s="2">
         <f>ASISTENCIA!P12</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <f>EXPERIENCIA!D12</f>
@@ -1945,14 +1948,14 @@
       </c>
       <c r="G12" s="2">
         <f>INVESTIGACION!F12</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I12" s="19">
         <f t="shared" si="0"/>
-        <v>6.05</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1964,7 +1967,7 @@
       </c>
       <c r="C13" s="2">
         <f>ASISTENCIA!P13</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
         <f>EXPERIENCIA!D13</f>
@@ -1980,14 +1983,14 @@
       </c>
       <c r="G13" s="2">
         <f>INVESTIGACION!F13</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" si="0"/>
-        <v>5.8500000000000005</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1999,7 +2002,7 @@
       </c>
       <c r="C14" s="2">
         <f>ASISTENCIA!P14</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
         <f>EXPERIENCIA!D14</f>
@@ -2015,14 +2018,14 @@
       </c>
       <c r="G14" s="2">
         <f>INVESTIGACION!F14</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I14" s="19">
         <f t="shared" si="0"/>
-        <v>6.4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2034,21 +2037,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="13" width="9.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
+    <col min="5" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2197,11 +2199,11 @@
         <v>61</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2248,11 +2250,11 @@
         <v>2</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2299,11 +2301,11 @@
         <v>2</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2350,11 +2352,11 @@
         <v>2</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2401,11 +2403,11 @@
         <v>61</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P7" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2452,11 +2454,11 @@
         <v>2</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2503,11 +2505,11 @@
         <v>61</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2554,11 +2556,11 @@
         <v>2</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2605,11 +2607,11 @@
         <v>2</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2656,11 +2658,11 @@
         <v>2</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2707,11 +2709,11 @@
         <v>61</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2758,11 +2760,11 @@
         <v>2</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2819,7 +2821,7 @@
       </c>
       <c r="O15" s="21">
         <f t="shared" ref="O15" si="6">COUNTIF(O2:O14,"=P")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -2933,7 +2935,7 @@
       </c>
       <c r="O17" s="21">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +2952,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D3" sqref="D3:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3205,7 +3207,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3679,7 +3681,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,14 +3742,14 @@
         <v>63</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F14" si="0">ROUNDUP((D3+E3)/2,0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3764,11 +3766,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3782,14 +3784,14 @@
         <v>66</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3803,14 +3805,14 @@
         <v>65</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3827,11 +3829,11 @@
         <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3845,14 +3847,14 @@
         <v>65</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3866,14 +3868,14 @@
         <v>63</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3887,14 +3889,14 @@
         <v>66</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3908,14 +3910,14 @@
         <v>64</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3929,14 +3931,14 @@
         <v>64</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3953,11 +3955,11 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3971,14 +3973,14 @@
         <v>63</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">

--- a/Docs/Asistencia.xlsx
+++ b/Docs/Asistencia.xlsx
@@ -420,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,6 +529,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1528,19 +1531,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1581,8 +1585,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2">
-        <f>ASISTENCIA!P2</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
         <f>EXPERIENCIA!D2</f>
@@ -1605,7 +1608,7 @@
       </c>
       <c r="I2" s="19">
         <f>C2*0.2+D2*0.05+E2*0.05+F2*0.1+G2*0.4+H2*0.2</f>
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1664,18 +1667,18 @@
       </c>
       <c r="F4" s="2">
         <f>PARTICIPACION!I5</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2">
         <f>INVESTIGACION!F4</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2">
         <v>20</v>
       </c>
       <c r="I4" s="19">
         <f t="shared" si="0"/>
-        <v>13.55</v>
+        <v>16.450000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1769,18 +1772,18 @@
       </c>
       <c r="F7" s="2">
         <f>PARTICIPACION!I8</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2">
         <f>INVESTIGACION!F7</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2">
         <v>15</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" si="0"/>
-        <v>11.55</v>
+        <v>14.650000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1804,7 +1807,7 @@
       </c>
       <c r="F8" s="2">
         <f>PARTICIPACION!I9</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2">
         <f>INVESTIGACION!F8</f>
@@ -1815,7 +1818,7 @@
       </c>
       <c r="I8" s="19">
         <f t="shared" si="0"/>
-        <v>15.75</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -1979,18 +1982,18 @@
       </c>
       <c r="F13" s="2">
         <f>PARTICIPACION!I14</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2">
         <f>INVESTIGACION!F13</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H13" s="2">
         <v>19</v>
       </c>
       <c r="I13" s="19">
         <f t="shared" si="0"/>
-        <v>12.65</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -2026,6 +2029,36 @@
       <c r="I14" s="19">
         <f t="shared" si="0"/>
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="43">
+        <f>AVERAGE(C2:C14)</f>
+        <v>16.692307692307693</v>
+      </c>
+      <c r="D15" s="43">
+        <f t="shared" ref="D15:I15" si="1">AVERAGE(D2:D14)</f>
+        <v>13.538461538461538</v>
+      </c>
+      <c r="E15" s="43">
+        <f t="shared" si="1"/>
+        <v>13.692307692307692</v>
+      </c>
+      <c r="F15" s="43">
+        <f t="shared" si="1"/>
+        <v>12.923076923076923</v>
+      </c>
+      <c r="G15" s="43">
+        <f t="shared" si="1"/>
+        <v>13.615384615384615</v>
+      </c>
+      <c r="H15" s="43">
+        <f t="shared" si="1"/>
+        <v>15.923076923076923</v>
+      </c>
+      <c r="I15" s="43">
+        <f t="shared" si="1"/>
+        <v>14.623076923076923</v>
       </c>
     </row>
   </sheetData>
@@ -3207,7 +3240,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H3" sqref="H3:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3345,11 +3378,11 @@
         <v>14</v>
       </c>
       <c r="H5" s="32">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I5" s="32">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3438,11 +3471,11 @@
         <v>12</v>
       </c>
       <c r="H8" s="32">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I8" s="32">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3469,11 +3502,11 @@
         <v>8</v>
       </c>
       <c r="H9" s="32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I9" s="32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3531,7 +3564,7 @@
         <v>12</v>
       </c>
       <c r="H11" s="32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="32">
         <f t="shared" si="0"/>
@@ -3624,11 +3657,11 @@
         <v>10</v>
       </c>
       <c r="H14" s="32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I14" s="32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3681,7 +3714,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3763,14 +3796,14 @@
         <v>67</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3826,14 +3859,14 @@
         <v>67</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>14</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -3952,14 +3985,14 @@
         <v>67</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
         <v>13</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
